--- a/lecNote/06_jsp/0921_12.paging_reply.xlsx
+++ b/lecNote/06_jsp/0921_12.paging_reply.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\이전수업자료\1_web\lecNote\06_jsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPro\lecNote\06_jsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="1" r:id="rId1"/>
@@ -157,159 +157,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>블록당 페이지수 : 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몇 페이지인지(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몇 페이지인지(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(페이지번호 - 1) * 페이지당 갯수+ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">끝번호 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호 + 페이지당갯수 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지 + 블록당페이지 수 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bstep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      글 2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((현재페이지 -1)/블록사이즈)*블록사이즈 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BLOCKSIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록당 페이지수 : 10개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 몇 페이지인지(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 몇 페이지인지(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(페이지번호 - 1) * 페이지당 갯수+ 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">끝번호 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호 + 페이지당갯수 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((현재페이지 -1)/10)*10 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작페이지 + 블록당페이지 수 -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bstep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      글 2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,6 +521,33 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,33 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,18 +891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,149 +912,149 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1068,29 +1068,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="1.8984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.3984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.59765625" style="3"/>
-    <col min="9" max="9" width="4.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="4.59765625" style="3"/>
+    <col min="2" max="2" width="7.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="1.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="3"/>
+    <col min="9" max="9" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="4.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1114,19 +1114,19 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1142,27 +1142,27 @@
       <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="22">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="24">
+        <v>59</v>
+      </c>
+      <c r="K2" s="21">
         <v>3</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="21">
         <v>0</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1178,27 +1178,27 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="22">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="24">
+        <v>60</v>
+      </c>
+      <c r="K3" s="21">
         <v>3</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1214,27 +1214,27 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="22">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="24">
+        <v>61</v>
+      </c>
+      <c r="K4" s="21">
         <v>3</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1250,27 +1250,27 @@
       <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="24">
         <v>2</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="29">
+      <c r="J5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="26">
         <v>2</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1286,27 +1286,27 @@
       <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>8</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="29">
+      <c r="J6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="26">
         <v>2</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M6" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1322,27 +1322,27 @@
       <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <v>9</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="J7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="26">
         <v>2</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1358,27 +1358,27 @@
       <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>7</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="29">
+      <c r="J8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="26">
         <v>2</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1394,27 +1394,27 @@
       <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>5</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="J9" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="26">
         <v>2</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1430,27 +1430,27 @@
       <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="24">
-        <v>1</v>
-      </c>
-      <c r="L10" s="24">
+        <v>68</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
         <v>0</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1466,100 +1466,100 @@
       <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="32">
+      <c r="I11" s="29">
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="24">
-        <v>1</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
       <c r="D21" s="19"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>

--- a/lecNote/06_jsp/0921_12.paging_reply.xlsx
+++ b/lecNote/06_jsp/0921_12.paging_reply.xlsx
@@ -157,6 +157,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BLOCKSIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>블록당 페이지수 : 10개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,107 +213,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지 + 블록당페이지 수 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bstep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      글 2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   글 1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작페이지 + 블록당페이지 수 -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bstep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      글 2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   글 1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((현재페이지 -1)/블록사이즈)*블록사이즈 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOCKSIZE</t>
+    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -914,10 +914,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -930,19 +930,19 @@
     </row>
     <row r="4" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -995,35 +995,35 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1068,25 +1068,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="3.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="1.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="3"/>
-    <col min="9" max="9" width="4.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="1.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="3.75" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
     <col min="14" max="16384" width="4.625" style="3"/>
   </cols>
   <sheetData>
